--- a/test/AGR test result.xlsx
+++ b/test/AGR test result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lllll\OneDrive\Desktop\Aorta\Project\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98904CF-E89B-414C-945C-0E0A7790B75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3458050F-8FD0-403B-97D4-9AC3BBB9EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{F07FF414-146D-4820-A536-071E7B9CD478}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>qsf</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>root mse</t>
+  </si>
+  <si>
+    <t>All tests are performed on descending aorta segmentation</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FF99C1-4598-47B7-BB5D-0974D9C24700}">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,6 +447,15 @@
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>8</v>
@@ -825,10 +837,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A11:E12"/>
     <mergeCell ref="A19:E20"/>
     <mergeCell ref="A2:E3"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
